--- a/Assets/Prefabs/Map Prefabs/Fruit Distibution.xlsx
+++ b/Assets/Prefabs/Map Prefabs/Fruit Distibution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>China</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>Iran</t>
+  </si>
+  <si>
+    <t>Chocholate</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Nethrlands</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
 </sst>
 </file>
@@ -144,12 +174,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,22 +477,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="4"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -468,10 +501,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -554,76 +587,192 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="5"/>
       <c r="D16">
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17">
         <v>41.4</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>10.1</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>5.2</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2.1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="D26" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="D35" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2">
+        <v>475.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2">
+        <v>432.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2">
+        <v>287.39999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>180.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <v>74.2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://en.wikipedia.org/wiki/China"/>
